--- a/ballonOrPays.xlsx
+++ b/ballonOrPays.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hejar\OneDrive\Bureau\ESGI\Reporting et restitution (S2)\GIT_PROJET\ReportingProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9644486D-17E7-40B7-9652-D312403BE2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8EE99C-6D69-4976-B0D3-BF4F70D7232E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ballonOrPays" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="197">
   <si>
     <t>year</t>
   </si>
@@ -593,12 +593,30 @@
   </si>
   <si>
     <t>Portugal</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Soviet Union</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1432,11 +1450,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1796,8 +1814,11 @@
       <c r="F16" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1971</v>
       </c>
@@ -1816,8 +1837,11 @@
       <c r="F17" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1972</v>
       </c>
@@ -1836,8 +1860,11 @@
       <c r="F18" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1973</v>
       </c>
@@ -1856,8 +1883,11 @@
       <c r="F19" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1974</v>
       </c>
@@ -1876,8 +1906,11 @@
       <c r="F20" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1975</v>
       </c>
@@ -1896,8 +1929,11 @@
       <c r="F21" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1976</v>
       </c>
@@ -1916,8 +1952,11 @@
       <c r="F22" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1977</v>
       </c>
@@ -1936,8 +1975,11 @@
       <c r="F23" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1978</v>
       </c>
@@ -1956,8 +1998,11 @@
       <c r="F24" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1979</v>
       </c>
@@ -1976,8 +2021,11 @@
       <c r="F25" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1980</v>
       </c>
@@ -1996,8 +2044,11 @@
       <c r="F26" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1981</v>
       </c>
@@ -2016,8 +2067,11 @@
       <c r="F27" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1982</v>
       </c>
@@ -2036,8 +2090,11 @@
       <c r="F28" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1983</v>
       </c>
@@ -2056,8 +2113,11 @@
       <c r="F29" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1984</v>
       </c>
@@ -2076,8 +2136,11 @@
       <c r="F30" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1985</v>
       </c>
@@ -2096,8 +2159,11 @@
       <c r="F31" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1986</v>
       </c>
@@ -2116,8 +2182,11 @@
       <c r="F32" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1987</v>
       </c>
@@ -2136,8 +2205,11 @@
       <c r="F33" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1988</v>
       </c>
@@ -2156,8 +2228,11 @@
       <c r="F34" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1989</v>
       </c>
@@ -2176,8 +2251,11 @@
       <c r="F35" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1990</v>
       </c>
@@ -2196,8 +2274,11 @@
       <c r="F36" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1991</v>
       </c>
@@ -2217,7 +2298,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1992</v>
       </c>
@@ -2237,7 +2318,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1993</v>
       </c>
@@ -2257,7 +2338,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1994</v>
       </c>
@@ -2277,7 +2358,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1995</v>
       </c>
@@ -2297,7 +2378,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1996</v>
       </c>
@@ -2317,7 +2398,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1997</v>
       </c>
@@ -2337,7 +2418,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1998</v>
       </c>
@@ -2357,7 +2438,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1999</v>
       </c>
@@ -2377,7 +2458,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2000</v>
       </c>
@@ -2397,7 +2478,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2001</v>
       </c>
@@ -2417,7 +2498,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2002</v>
       </c>
